--- a/input/consumption_taxes/Taxes on Food at Home/2016 Sales Tax.xlsx
+++ b/input/consumption_taxes/Taxes on Food at Home/2016 Sales Tax.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaxitan/UMN/Fed RA/Heathcote/sales_taxes/main/input/consumption_taxes/Taxes on Food at Home/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431716E4-3114-FC4A-A85E-64BD31F415FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="14865" windowHeight="8580"/>
+    <workbookView xWindow="30620" yWindow="2480" windowWidth="22640" windowHeight="26320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="95">
   <si>
     <t>TAXES</t>
   </si>
@@ -96,9 +102,6 @@
     <t>Georgia</t>
   </si>
   <si>
-    <t>(f)</t>
-  </si>
-  <si>
     <t>Hawaii</t>
   </si>
   <si>
@@ -123,9 +126,6 @@
     <t>Louisiana</t>
   </si>
   <si>
-    <t>(f)</t>
-  </si>
-  <si>
     <t>Maine</t>
   </si>
   <si>
@@ -177,9 +177,6 @@
     <t>North Carolina</t>
   </si>
   <si>
-    <t>(f)</t>
-  </si>
-  <si>
     <t>North Dakota</t>
   </si>
   <si>
@@ -304,37 +301,25 @@
   </si>
   <si>
     <t>The Council of State Governments</t>
+  </si>
+  <si>
+    <t>★</t>
+  </si>
+  <si>
+    <t>★ (f)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-    <numFmt numFmtId="166" formatCode="0%"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.000%"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
-    <numFmt numFmtId="170" formatCode="0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -376,10 +361,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF2B2A29"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="1">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -394,81 +388,366 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+  <a:themeElements>
+    <a:clrScheme name="Office 2007 - 2010">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office 2007 - 2010">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office 2007 - 2010">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="218" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="31"/>
-    <col min="2" max="2" width="19"/>
-    <col min="3" max="3" width="19"/>
+    <col min="2" max="3" width="19"/>
     <col min="4" max="4" width="28"/>
     <col min="5" max="5" width="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-  </row>
-    <row r="2" spans="1:2">
-  </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-  </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:5" ht="14">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:5" ht="14">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:5" ht="14">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-  </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -476,7 +755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -493,15 +772,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="5">
-        <v>4.00000000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -509,50 +791,77 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="5">
-        <v>5.60000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>5.6</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="5">
-        <v>6.50000000</v>
+        <v>6.5</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="D15" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="5">
-        <v>2.90000000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>2.9</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="7">
-        <v>6.35000000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>6.35</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
@@ -560,457 +869,652 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="5">
-        <v>6.00000000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>6</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="5">
-        <v>4.00000000</v>
+        <v>4</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="4" t="s">
+      <c r="B22" s="5">
+        <v>4</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="5">
-        <v>4.00000000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
+      <c r="B23" s="5">
+        <v>6</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="5">
-        <v>6.00000000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
+      <c r="B24" s="7">
+        <v>6.25</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="7">
-        <v>6.25000000</v>
-      </c>
-      <c r="C24" s="8">
-        <v>0.01000000</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0.01000000</v>
-      </c>
-      <c r="E24" s="8">
-        <v>0.01000000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="4" t="s">
+      <c r="B25" s="5">
+        <v>7</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="5">
-        <v>7.00000000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="4" t="s">
+      <c r="B26" s="5">
+        <v>6</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="5">
-        <v>6.00000000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="4" t="s">
+      <c r="B27" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="5">
-        <v>6.50000000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="4" t="s">
+      <c r="B28" s="5">
+        <v>6</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="5">
-        <v>6.00000000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="4" t="s">
+      <c r="B29" s="5">
+        <v>4</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="5">
-        <v>4.00000000</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="B30" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="4" t="s">
+      <c r="B31" s="5">
+        <v>6</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="5">
-        <v>5.50000000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="4" t="s">
+      <c r="B32" s="7">
+        <v>6.25</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="5">
-        <v>6.00000000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="4" t="s">
+      <c r="B33" s="5">
+        <v>6</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="7">
-        <v>6.25000000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="4" t="s">
+      <c r="B34" s="9">
+        <v>6.875</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="5">
-        <v>6.00000000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="4" t="s">
+      <c r="B35" s="5">
+        <v>7</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="9">
-        <v>6.87500000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="4" t="s">
+      <c r="B36" s="9">
+        <v>4.2249999999999996</v>
+      </c>
+      <c r="C36" s="10">
+        <v>1.225E-2</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="5">
-        <v>7.00000000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="4" t="s">
+      <c r="B37" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="9">
-        <v>4.22500000</v>
-      </c>
-      <c r="C36" s="10">
-        <v>0.01225000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="4" t="s">
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B38" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="4" t="s">
+      <c r="B39" s="7">
+        <v>6.85</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="5">
-        <v>5.50000000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="4" t="s">
+      <c r="B40" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="7">
-        <v>6.85000000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="4" t="s">
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B41" s="5">
+        <v>7</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="4" t="s">
+      <c r="B42" s="9">
+        <v>5.125</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="5">
-        <v>7.00000000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="4" t="s">
+      <c r="B43" s="5">
+        <v>4</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="9">
-        <v>5.12500000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="4" t="s">
+      <c r="B44" s="7">
+        <v>4.75</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="5">
-        <v>4.00000000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="4" t="s">
+      <c r="B45" s="5">
+        <v>5</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="7">
-        <v>4.75000000</v>
-      </c>
-      <c r="C44" s="6" t="s">
+      <c r="B46" s="7">
+        <v>5.75</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="4" t="s">
+      <c r="B47" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="5">
-        <v>5.00000000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="4" t="s">
+      <c r="B48" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="7">
-        <v>5.75000000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="4" t="s">
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="5">
-        <v>4.50000000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="4" t="s">
+      <c r="B49" s="5">
+        <v>6</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B50" s="5">
+        <v>7</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="4" t="s">
+      <c r="B51" s="5">
+        <v>6</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="5">
-        <v>6.00000000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="4" t="s">
+      <c r="B52" s="5">
+        <v>4</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="5">
-        <v>7.00000000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="4" t="s">
+      <c r="B53" s="5">
+        <v>7</v>
+      </c>
+      <c r="C53" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B51" s="5">
-        <v>6.00000000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="4" t="s">
+      <c r="B54" s="7">
+        <v>6.25</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="5">
-        <v>4.00000000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="4" t="s">
+      <c r="B55" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="5">
-        <v>7.00000000</v>
-      </c>
-      <c r="C53" s="11">
-        <v>0.05000000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="4" t="s">
+      <c r="C55" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="7">
-        <v>6.25000000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="4" t="s">
+      <c r="D55" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="5">
+        <v>6</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="B57" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="4" t="s">
+      <c r="C57" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B56" s="5">
-        <v>6.00000000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="4" t="s">
+      <c r="D57" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B58" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C58" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="4" t="s">
+      <c r="B59" s="5">
+        <v>6</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B60" s="5">
+        <v>5</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="4" t="s">
+      <c r="B61" s="5">
+        <v>4</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B59" s="5">
-        <v>6.00000000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="4" t="s">
+      <c r="B62" s="7">
+        <v>5.75</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="B63" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B60" s="5">
-        <v>5.00000000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="4" t="s">
+      <c r="D63" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B61" s="5">
-        <v>4.00000000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="4" t="s">
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B62" s="7">
-        <v>5.75000000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="B63" s="3" t="s">
+      <c r="D64" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D63" s="6" t="s">
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="6" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="3" t="s">
+      <c r="D65" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D64" s="6" t="s">
+    </row>
+    <row r="66" spans="1:5">
+      <c r="B66" s="6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="6" t="s">
+      <c r="D66" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D65" s="6" t="s">
+    </row>
+    <row r="67" spans="1:5">
+      <c r="B67" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="B66" s="6" t="s">
+      <c r="C67" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D66" s="6" t="s">
+    </row>
+    <row r="68" spans="1:5">
+      <c r="B68" s="6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="B67" s="6" t="s">
+      <c r="D68" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C67" s="6" t="s">
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="6" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="B68" s="6" t="s">
+      <c r="D69" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D68" s="6" t="s">
+    </row>
+    <row r="70" spans="1:5">
+      <c r="B70" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="6" t="s">
+    <row r="71" spans="1:5">
+      <c r="B71" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D69" s="6" t="s">
+    </row>
+    <row r="72" spans="1:5">
+      <c r="B72" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="B70" s="6" t="s">
+    <row r="73" spans="1:5">
+      <c r="D73" s="12" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="B71" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="B72" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="D73" s="12" t="s">
-        <v>95</v>
-      </c>
       <c r="E73" s="13">
-        <v>393.00000000</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -1019,24 +1523,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
